--- a/data/COE_GOLD_JUMP.xlsx
+++ b/data/COE_GOLD_JUMP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aecom.sharepoint.com/sites/BRZDigitalCoE2/Shared Documents/BRZ Digital CoE/900_Work/1. Projects/STDI/DataPipelineFME/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F548BFA-A454-4A0E-B640-6C30D67B5BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7411413F-9A31-4A0E-98F6-09FE6379B41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DA12789-6172-4FCD-B8BF-DBC283E59982}"/>
   </bookViews>
@@ -422,9 +422,6 @@
     <t>md_pcd_car_es_20250506.xml</t>
   </si>
   <si>
-    <t>pol_pcd_car_sp_20250506.gpkg</t>
-  </si>
-  <si>
     <t>sld_pcd_car_es_20250506.sld</t>
   </si>
   <si>
@@ -1244,9 +1241,6 @@
     <t>M:\COE_Digital\coe_digital_data\silver_data\RESTRICTED\LOC\estado\IBGE\20220101\00</t>
   </si>
   <si>
-    <t>md_loc_sta_20220101.xm</t>
-  </si>
-  <si>
     <t>pol_loc_sta_20220101.gpkg</t>
   </si>
   <si>
@@ -1266,13 +1260,19 @@
   </si>
   <si>
     <t>sld_bio_imp_bio_20181218.sld</t>
+  </si>
+  <si>
+    <t>pol_pcd_car_es_20250506.gpkg</t>
+  </si>
+  <si>
+    <t>md_loc_sta_20220101.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1696,21 +1696,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9D260C-CF21-4CBB-A7D2-9FC4B49CD5CE}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K80" sqref="J80:K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="36.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.5">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.5">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.5">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.5">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.5">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.5">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.5">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.5">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -2146,1013 +2146,1013 @@
         <v>127</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.5">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.5">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="43.5">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.5">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="43.5">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.5">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.5">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.5">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.5">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.5">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="43.5">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.5">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="43.5">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.5">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="43.5">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="43.5">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="43.5">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.5">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="43.5">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="43.5">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="43.5">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.5">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="43.5">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="43.5">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="43.5">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="43.5">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="43.5">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="43.5">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="43.5">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="43.5">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="43.5">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="43.5">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="43.5">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="43.5">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="43.5">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="43.5">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="43.5">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="43.5">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="43.5">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="43.5">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="43.5">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="43.5">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="43.5">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="43.5">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="43.5">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="43.5">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="43.5">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="43.5">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="43.5">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="43.5">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="43.5">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="43.5">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="43.5">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="43.5">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="43.5">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="43.5">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="43.5">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="43.5">
-      <c r="A85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3165,15 +3165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A0699EBBE9C024FAA8EE8AF31006A1C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fb998af3e11cbfd3a8d90a0212f2d20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da2b820d-ef08-4a5b-99ac-079466abee25" xmlns:ns3="43afdd01-8e09-47c6-a68e-408b5d05f0dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca05870c89e39ad5fc269cce7eae75dd" ns2:_="" ns3:_="">
     <xsd:import namespace="da2b820d-ef08-4a5b-99ac-079466abee25"/>
@@ -3386,6 +3377,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3398,13 +3398,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4091417D-27C8-4501-8F90-A7A0BD4A0EE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D8BC4DC-5D27-412A-8403-383B2E1A3E05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da2b820d-ef08-4a5b-99ac-079466abee25"/>
+    <ds:schemaRef ds:uri="43afdd01-8e09-47c6-a68e-408b5d05f0dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D8BC4DC-5D27-412A-8403-383B2E1A3E05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4091417D-27C8-4501-8F90-A7A0BD4A0EE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E217844-73DB-4709-8E02-FB954CEB93E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E217844-73DB-4709-8E02-FB954CEB93E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="da2b820d-ef08-4a5b-99ac-079466abee25"/>
+    <ds:schemaRef ds:uri="43afdd01-8e09-47c6-a68e-408b5d05f0dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>